--- a/backend/fuint-application/src/main/resources/template/MemberTemplate.xlsx
+++ b/backend/fuint-application/src/main/resources/template/MemberTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\fuint\fuint-backend\fuint-application\src\main\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784E7185-0D68-4788-A545-37475781ECBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0659EDD5-85FB-448D-A692-947DEF9D047D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4212" yWindow="1188" windowWidth="18828" windowHeight="9084" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="会员列表" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>性别</t>
   </si>
@@ -135,6 +135,10 @@
   </si>
   <si>
     <t>琼A88999</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录密码</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -182,7 +186,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,6 +196,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -254,6 +264,10 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -558,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -576,9 +590,10 @@
     <col min="10" max="10" width="17.109375" customWidth="1"/>
     <col min="11" max="12" width="17" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
@@ -618,8 +633,11 @@
       <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="9" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -658,6 +676,9 @@
       </c>
       <c r="M2" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="N2" s="8">
+        <v>8899900</v>
       </c>
     </row>
   </sheetData>
